--- a/Project/Assets/output/genetic_algorithm.xlsx
+++ b/Project/Assets/output/genetic_algorithm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f76c9e78-6a94-4a30-bbd3-b125acaf6e27</t>
+          <t>423bc85e-4847-495c-948e-85ac3b3e1adf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8e80a365-3e5b-4c03-abd1-06271feed363</t>
+          <t>96228989-f3fc-4540-9436-8c309429262d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>30.92</v>
+        <v>61.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ebd3005b-6fcb-4be3-b940-347b7cf9c1fe</t>
+          <t>ca45fd12-1d8c-4478-b427-bdd50b503b95</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2c2a84c5-f3f0-4f41-83d0-5844c04cd91f</t>
+          <t>43830544-ea00-4ad4-887d-28edba11efda</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>e4c8c144-ad88-4442-873b-910ca4f8860c</t>
+          <t>f63a3101-b06b-4add-8c2c-1a00213d53a7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>d31a8f4d-103b-4619-b0be-78220ed02c35</t>
+          <t>1e596bd8-6b31-4635-92e8-1823865282a9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -682,17 +682,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15.28</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>c52a7a10-6fff-4890-b744-17999575950a</t>
+          <t>ca4cf003-df13-4cd0-9106-ca679f9d8da8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -717,17 +717,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>38.2</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8e1602c8-1e44-465d-9f53-47c79d25274b</t>
+          <t>504fc084-fb05-424f-8b48-2e993f7019c5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0e2f17b9-2f49-479c-a357-6f679a217784</t>
+          <t>2ef78ffd-2e67-4a31-96f0-4fc9495f8dee</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -787,17 +787,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38.2</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>14bbb143-b2f9-4a18-88f6-90c04a70ff0e</t>
+          <t>a2800b46-99a1-484f-91f9-1f7660c81dae</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -822,11 +822,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15.28</v>
+        <v>38.2</v>
       </c>
     </row>
   </sheetData>
